--- a/diaries/diary-harry-duong.xlsx
+++ b/diaries/diary-harry-duong.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t xml:space="preserve">SWE 265P Diary</t>
   </si>
@@ -124,7 +124,73 @@
     <t xml:space="preserve">Craving some Mexican food</t>
   </si>
   <si>
-    <t xml:space="preserve">Etc.</t>
+    <t xml:space="preserve">15 Jan 2020 (W)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2100-2300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research various projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Found a few projects like ghidra, micrometer, etc…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 Jan 2020 (Th)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second lecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 Jan 2020 (Sa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2145-0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harry, Deon, Thuc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discuss findings and decide on project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After debating for a while, we decided to go with a project called Runelite, which is a client for the popular game RuneScape.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The usual quirks of group decisions come up – the paradox of choice forces a lengthy debate on where to proceed, especially since metering a project’s appeal comes from the group members’ passions for each project. No two members have the same exact passions, not at least in this group, so the decision is difficulit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feeling good after dancing out (some of) the stress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 Jan 2020 (Su)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000-0041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figure out a clean method to synchronize 265’s, my, and my computer’s local W2020 repositories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if you see this message in the 265P repository then what I did works.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 Jan 2020 (Tu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1200-1250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read and annotate Jonas Juselius’s “Git in a Nutshell” document to understand Git and possibly automate updating the diary and project files and such; the GitHub web interface can help only so much. The internet is not much help either; the GitHub documentation isn’t very clear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I read and annotated the whole document and can reference it when I need it. It is a lot to remember and I need time to get used to git.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I printed this document long ago and never went through it completely because I never had to use git or GitHub. Git overwhelms and has many features that I will discover in time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I should eat lunch before heading off to campus.</t>
   </si>
 </sst>
 </file>
@@ -424,10 +490,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -634,58 +700,112 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+    <row r="16" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
+    <row r="18" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="9"/>
@@ -694,7 +814,7 @@
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
@@ -721,7 +841,7 @@
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="9"/>
@@ -1652,6 +1772,15 @@
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="9"/>
+    </row>
+    <row r="127" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/diaries/diary-harry-duong.xlsx
+++ b/diaries/diary-harry-duong.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t xml:space="preserve">SWE 265P Diary</t>
   </si>
@@ -191,6 +191,42 @@
   </si>
   <si>
     <t xml:space="preserve">I should eat lunch before heading off to campus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 Jan 2020 (Th)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Third lecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learned about UML and mental models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a pattern to the way people analyze code. Sometimes it’s brute force as I often do, by printing and reading source code on paper. Sometimes I can search smartly using IntelliJ, grep, or find. The key idea is that as with any programming system, it’s more efficient to think smartly first to narrow the search space (although it doesn’t feel efficient). Then when you run out of options you either brute force the system or move on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rather tired; three-hour lectures in a sealed room in the evening are not easy to bear. At least Andre lets us practice our skills and get up and move around.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 Jan 2020 (Tu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1415-1445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lecture 3 homework: UML diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We already discussed some logistics during the weekend (and the Lunar festivities threw us off). Deon set up the UML diagram and looks to print it out for us to stitch together.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exhausted. Not from the coursework from this quarter, but from the last 16-17 months of craziness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1500-1530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaj’s Git mini lecture</t>
   </si>
 </sst>
 </file>
@@ -200,7 +236,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -222,6 +258,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -247,6 +290,13 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
@@ -286,14 +336,6 @@
     <font>
       <i val="true"/>
       <sz val="12"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -359,13 +401,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -374,32 +416,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="22" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -407,7 +441,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -492,103 +534,103 @@
   </sheetPr>
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="34.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="1" width="34.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -611,7 +653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
@@ -628,11 +670,11 @@
         <v>18</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
@@ -650,7 +692,7 @@
         <v>First lecture, meet Andre</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -673,7 +715,7 @@
       <c r="F12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -696,7 +738,7 @@
         <v>Learn the basics of git and GitHub, GitHub’s [hello world] example</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -717,7 +759,7 @@
         <v>37</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
@@ -734,7 +776,7 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
@@ -755,7 +797,7 @@
       <c r="F16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -776,7 +818,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
@@ -797,990 +839,1024 @@
       <c r="F18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
+    <row r="19" customFormat="false" ht="156.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="G20" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="9"/>
-    </row>
-    <row r="39" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="40" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
-      <c r="G40" s="9"/>
-    </row>
-    <row r="41" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
-      <c r="G43" s="9"/>
-    </row>
-    <row r="44" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
-      <c r="G44" s="9"/>
-    </row>
-    <row r="45" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
-      <c r="G45" s="9"/>
-    </row>
-    <row r="46" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="9"/>
-    </row>
-    <row r="47" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="9"/>
-    </row>
-    <row r="48" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="9"/>
-    </row>
-    <row r="49" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="9"/>
-    </row>
-    <row r="50" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
-      <c r="G52" s="9"/>
-    </row>
-    <row r="53" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="9"/>
-    </row>
-    <row r="54" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
-      <c r="G61" s="9"/>
-    </row>
-    <row r="62" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G61" s="8"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
-      <c r="G63" s="9"/>
-    </row>
-    <row r="64" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
-      <c r="G64" s="9"/>
-    </row>
-    <row r="65" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
-      <c r="G65" s="9"/>
-    </row>
-    <row r="66" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
-      <c r="G67" s="9"/>
-    </row>
-    <row r="68" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
-      <c r="G71" s="9"/>
-    </row>
-    <row r="72" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
-      <c r="G73" s="9"/>
-    </row>
-    <row r="74" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
-      <c r="G75" s="9"/>
-    </row>
-    <row r="76" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
-      <c r="G76" s="9"/>
-    </row>
-    <row r="77" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
-      <c r="G77" s="9"/>
-    </row>
-    <row r="78" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
-      <c r="G78" s="9"/>
-    </row>
-    <row r="79" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="80" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G79" s="8"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
-      <c r="G80" s="9"/>
-    </row>
-    <row r="81" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
-      <c r="G81" s="9"/>
-    </row>
-    <row r="82" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
-      <c r="G82" s="9"/>
-    </row>
-    <row r="83" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G82" s="8"/>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
-      <c r="G83" s="9"/>
-    </row>
-    <row r="84" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G83" s="8"/>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
-      <c r="G84" s="9"/>
-    </row>
-    <row r="85" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G84" s="8"/>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
-      <c r="G85" s="9"/>
-    </row>
-    <row r="86" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G85" s="8"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
-      <c r="G86" s="9"/>
-    </row>
-    <row r="87" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G86" s="8"/>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
-      <c r="G87" s="9"/>
-    </row>
-    <row r="88" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G87" s="8"/>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
-      <c r="G88" s="9"/>
-    </row>
-    <row r="89" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
-      <c r="G89" s="9"/>
-    </row>
-    <row r="90" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G89" s="8"/>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
-      <c r="G90" s="9"/>
-    </row>
-    <row r="91" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
-      <c r="G91" s="9"/>
-    </row>
-    <row r="92" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G91" s="8"/>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G92" s="8"/>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
-      <c r="G93" s="9"/>
-    </row>
-    <row r="94" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G93" s="8"/>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
-      <c r="G94" s="9"/>
-    </row>
-    <row r="95" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G94" s="8"/>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
-      <c r="G95" s="9"/>
-    </row>
-    <row r="96" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G95" s="8"/>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
-      <c r="G96" s="9"/>
-    </row>
-    <row r="97" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G96" s="8"/>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
-      <c r="G97" s="9"/>
-    </row>
-    <row r="98" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G97" s="8"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
-      <c r="G98" s="9"/>
-    </row>
-    <row r="99" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G98" s="8"/>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
-      <c r="G99" s="9"/>
-    </row>
-    <row r="100" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G99" s="8"/>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
-      <c r="G100" s="9"/>
-    </row>
-    <row r="101" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G100" s="8"/>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
-      <c r="G101" s="9"/>
-    </row>
-    <row r="102" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G101" s="8"/>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
-      <c r="G102" s="9"/>
-    </row>
-    <row r="103" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G102" s="8"/>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
-      <c r="G103" s="9"/>
-    </row>
-    <row r="104" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G103" s="8"/>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
-      <c r="G104" s="9"/>
-    </row>
-    <row r="105" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G104" s="8"/>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
-      <c r="G105" s="9"/>
-    </row>
-    <row r="106" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G105" s="8"/>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G106" s="8"/>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
-      <c r="G107" s="9"/>
-    </row>
-    <row r="108" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G107" s="8"/>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
-      <c r="G108" s="9"/>
-    </row>
-    <row r="109" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G108" s="8"/>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
-      <c r="G109" s="9"/>
-    </row>
-    <row r="110" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G109" s="8"/>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
-      <c r="G110" s="9"/>
-    </row>
-    <row r="111" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G110" s="8"/>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
-      <c r="G111" s="9"/>
-    </row>
-    <row r="112" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G111" s="8"/>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
-      <c r="G112" s="9"/>
-    </row>
-    <row r="113" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G112" s="8"/>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
-      <c r="G113" s="9"/>
-    </row>
-    <row r="114" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G113" s="8"/>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
-      <c r="G114" s="9"/>
-    </row>
-    <row r="115" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G114" s="8"/>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G115" s="8"/>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
-      <c r="G116" s="9"/>
-    </row>
-    <row r="117" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G116" s="8"/>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
-      <c r="G117" s="9"/>
-    </row>
-    <row r="118" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G117" s="8"/>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
-      <c r="G118" s="9"/>
-    </row>
-    <row r="119" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G118" s="8"/>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
-      <c r="G119" s="9"/>
-    </row>
-    <row r="120" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G119" s="8"/>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
-      <c r="G120" s="9"/>
-    </row>
-    <row r="121" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G120" s="8"/>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
-      <c r="G121" s="9"/>
-    </row>
-    <row r="122" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G121" s="8"/>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
-      <c r="G122" s="9"/>
-    </row>
-    <row r="123" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G122" s="8"/>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
-      <c r="G123" s="9"/>
-    </row>
-    <row r="124" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G123" s="8"/>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
-      <c r="G124" s="9"/>
-    </row>
-    <row r="125" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G124" s="8"/>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
-      <c r="G125" s="9"/>
-    </row>
-    <row r="126" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G125" s="8"/>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
-      <c r="G126" s="9"/>
-    </row>
-    <row r="127" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G126" s="8"/>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
-      <c r="G127" s="9"/>
+      <c r="G127" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/diaries/diary-harry-duong.xlsx
+++ b/diaries/diary-harry-duong.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">E-mail:</t>
   </si>
   <si>
-    <t xml:space="preserve">duonghh@gmail.com</t>
+    <t xml:space="preserve">duonghh@uci.edu</t>
   </si>
   <si>
     <t xml:space="preserve">GitHub profile:</t>
@@ -534,8 +534,8 @@
   </sheetPr>
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1863,7 +1863,7 @@
     <mergeCell ref="A1:G2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="duonghh@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId1" display="duonghh@uci.edu"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/diaries/diary-harry-duong.xlsx
+++ b/diaries/diary-harry-duong.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
   <si>
     <t xml:space="preserve">SWE 265P Diary</t>
   </si>
@@ -223,10 +223,28 @@
     <t xml:space="preserve">Exhausted. Not from the coursework from this quarter, but from the last 16-17 months of craziness.</t>
   </si>
   <si>
-    <t xml:space="preserve">1500-1530</t>
+    <t xml:space="preserve">1500-1600</t>
   </si>
   <si>
     <t xml:space="preserve">Kaj’s Git mini lecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 Jan 2020 (W)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1430-1515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Runelite up and running</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It works. IT WORKS! It nor I can do anything meaningful because I know little about Runescape.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This project also introduces me to Maven and Runescape. What boggles me is how a project has multiple build tools like Gradle, Maven, and more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full. Just downed four fish tacos and am waiting for teammates to come into the lab.</t>
   </si>
 </sst>
 </file>
@@ -534,8 +552,8 @@
   </sheetPr>
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -904,14 +922,28 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+    <row r="22" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8"/>

--- a/diaries/diary-harry-duong.xlsx
+++ b/diaries/diary-harry-duong.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="90">
   <si>
     <t xml:space="preserve">SWE 265P Diary</t>
   </si>
@@ -245,6 +245,51 @@
   </si>
   <si>
     <t xml:space="preserve">Full. Just downed four fish tacos and am waiting for teammates to come into the lab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1540-1710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work on third lecture’s homework and write up the component findings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deon printed the UML diagram and taped everything together. It’s as messy as we expected. We chose which components to highlight. We wrote up on where the components fit in the UML diagram.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I came in 30 minutes early. Teammates came 40 minutes late. People are busy and traffic is not nice. The difference in time gives a few moments to breathe and observe the lab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1910-1945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We continued discussing the diagram and what components to select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We chose Metronome* and ScreenMarkers and found Metronome* on the diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2300-0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalized the writeup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 Jan 2020 (Th)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000-0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More tired than usual. Nutrition and exercise aren’t the issue; something else is wrong.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1135-1220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look at the homework once more. Will look at UML diagram later today to make sure everything is correct.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Things look good to go.</t>
   </si>
 </sst>
 </file>
@@ -552,8 +597,8 @@
   </sheetPr>
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -945,48 +990,104 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+    <row r="23" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="G23" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="A25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+    <row r="26" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="8" t="str">
+        <f aca="false">D25</f>
+        <v>Finalized the writeup</v>
+      </c>
+      <c r="E26" s="8" t="str">
+        <f aca="false">E25</f>
+        <v>Finalized the writeup</v>
+      </c>
       <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="G26" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
     </row>

--- a/diaries/diary-harry-duong.xlsx
+++ b/diaries/diary-harry-duong.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
   <si>
     <t xml:space="preserve">SWE 265P Diary</t>
   </si>
@@ -290,6 +290,15 @@
   </si>
   <si>
     <t xml:space="preserve">Things look good to go.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1545-1700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalize writeup, finalize UML diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mission accomplished</t>
   </si>
 </sst>
 </file>
@@ -598,7 +607,7 @@
   <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
+      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1091,12 +1100,22 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+    <row r="28" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
     </row>

--- a/diaries/diary-harry-duong.xlsx
+++ b/diaries/diary-harry-duong.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="103">
   <si>
     <t xml:space="preserve">SWE 265P Diary</t>
   </si>
@@ -299,6 +299,36 @@
   </si>
   <si>
     <t xml:space="preserve">Mission accomplished</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 Jan 2020 (W)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1710-2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work on fourth lecture’s homework while simutaneously paying attention to the 261 lecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We finished documenting the first feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decisions, decisions! It’s hard to make a choice of features when there are so many! Also in Runeline a large chunk of the code is plugins. So the hunt for essential features became a lot harder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because the classes are in sequence, I have to work on the assignments in sequence. So the work for this class will always be at the tail end of the weekly schedule.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We finished documenting the second feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Jan 2020 (Th)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000-0030</t>
   </si>
 </sst>
 </file>
@@ -606,8 +636,8 @@
   </sheetPr>
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1119,30 +1149,68 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+    <row r="29" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="8" t="str">
+        <f aca="false">C29</f>
+        <v>Harry, Deon, Thuc</v>
+      </c>
+      <c r="D30" s="8" t="str">
+        <f aca="false">D29</f>
+        <v>Work on fourth lecture’s homework while simutaneously paying attention to the 261 lecture</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+    <row r="31" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="8" t="str">
+        <f aca="false">D30</f>
+        <v>Work on fourth lecture’s homework while simutaneously paying attention to the 261 lecture</v>
+      </c>
+      <c r="E31" s="8" t="str">
+        <f aca="false">E30</f>
+        <v>We finished documenting the second feature</v>
+      </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
     </row>

--- a/diaries/diary-harry-duong.xlsx
+++ b/diaries/diary-harry-duong.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="103">
   <si>
     <t xml:space="preserve">SWE 265P Diary</t>
   </si>
@@ -290,6 +290,45 @@
   </si>
   <si>
     <t xml:space="preserve">Things look good to go.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1545-1700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalize writeup, finalize UML diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mission accomplished</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 Jan 2020 (W)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1710-2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work on fourth lecture’s homework while simutaneously paying attention to the 261 lecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We finished documenting the first feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decisions, decisions! It’s hard to make a choice of features when there are so many! Also in Runeline a large chunk of the code is plugins. So the hunt for essential features became a lot harder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because the classes are in sequence, I have to work on the assignments in sequence. So the work for this class will always be at the tail end of the weekly schedule.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We finished documenting the second feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Jan 2020 (Th)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000-0030</t>
   </si>
 </sst>
 </file>
@@ -597,8 +636,8 @@
   </sheetPr>
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1091,39 +1130,87 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+    <row r="28" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+    <row r="29" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="8" t="str">
+        <f aca="false">C29</f>
+        <v>Harry, Deon, Thuc</v>
+      </c>
+      <c r="D30" s="8" t="str">
+        <f aca="false">D29</f>
+        <v>Work on fourth lecture’s homework while simutaneously paying attention to the 261 lecture</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+    <row r="31" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="8" t="str">
+        <f aca="false">D30</f>
+        <v>Work on fourth lecture’s homework while simutaneously paying attention to the 261 lecture</v>
+      </c>
+      <c r="E31" s="8" t="str">
+        <f aca="false">E30</f>
+        <v>We finished documenting the second feature</v>
+      </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
     </row>

--- a/diaries/diary-harry-duong.xlsx
+++ b/diaries/diary-harry-duong.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
   <si>
     <t xml:space="preserve">SWE 265P Diary</t>
   </si>
@@ -329,6 +329,21 @@
   </si>
   <si>
     <t xml:space="preserve">0000-0030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1600-1615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harry, Thuc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discuss any changes to make before finally submitting homework 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done and done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I need some fruits and vegetables</t>
   </si>
 </sst>
 </file>
@@ -637,7 +652,7 @@
   <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1214,14 +1229,26 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+    <row r="32" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="G32" s="8" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>

--- a/diaries/diary-harry-duong.xlsx
+++ b/diaries/diary-harry-duong.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="119">
   <si>
     <t xml:space="preserve">SWE 265P Diary</t>
   </si>
@@ -344,6 +344,39 @@
   </si>
   <si>
     <t xml:space="preserve">I need some fruits and vegetables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 Jan 2020 (W)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2245-0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study for tomorrow’s midterm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got through the lectures and online articles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don’t procrastinate out of laziness; the past week or so were full of chaos, both in and out of academia. On the bright side, the lecture recordings help tremendously with the studying.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feeling fine, just need a smoothie. I’ll get one on the way to class tomorrow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 Jan 2020 (Th)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000-0206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study for today’s midterm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same as yesterday. Will finish studying later today.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stomach is active, just need a smoothie. I’ll get one on the way to class today.</t>
   </si>
 </sst>
 </file>
@@ -652,7 +685,7 @@
   <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G32" activeCellId="0" sqref="G32"/>
+      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1250,23 +1283,52 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+    <row r="33" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="8" t="str">
+        <f aca="false">F33</f>
+        <v>I don’t procrastinate out of laziness; the past week or so were full of chaos, both in and out of academia. On the bright side, the lecture recordings help tremendously with the studying.</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8"/>

--- a/diaries/diary-harry-duong.xlsx
+++ b/diaries/diary-harry-duong.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="122">
   <si>
     <t xml:space="preserve">SWE 265P Diary</t>
   </si>
@@ -301,7 +301,7 @@
     <t xml:space="preserve">Mission accomplished</t>
   </si>
   <si>
-    <t xml:space="preserve">5 Jan 2020 (W)</t>
+    <t xml:space="preserve">5 Feb 2020 (W)</t>
   </si>
   <si>
     <t xml:space="preserve">1710-2010</t>
@@ -325,7 +325,7 @@
     <t xml:space="preserve">We finished documenting the second feature</t>
   </si>
   <si>
-    <t xml:space="preserve">6 Jan 2020 (Th)</t>
+    <t xml:space="preserve">6 Feb 2020 (Th)</t>
   </si>
   <si>
     <t xml:space="preserve">0000-0030</t>
@@ -346,7 +346,7 @@
     <t xml:space="preserve">I need some fruits and vegetables</t>
   </si>
   <si>
-    <t xml:space="preserve">12 Jan 2020 (W)</t>
+    <t xml:space="preserve">12 Feb 2020 (W)</t>
   </si>
   <si>
     <t xml:space="preserve">2245-0000</t>
@@ -364,7 +364,7 @@
     <t xml:space="preserve">Feeling fine, just need a smoothie. I’ll get one on the way to class tomorrow.</t>
   </si>
   <si>
-    <t xml:space="preserve">13 Jan 2020 (Th)</t>
+    <t xml:space="preserve">13 Feb 2020 (Th)</t>
   </si>
   <si>
     <t xml:space="preserve">0000-0206</t>
@@ -377,6 +377,15 @@
   </si>
   <si>
     <t xml:space="preserve">Stomach is active, just need a smoothie. I’ll get one on the way to class today.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1445-1700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Went through the final set of slides with the sample questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I decided not to drink the whole smoothie. Even though it’s advertised as no added sugar, I don’t believe so.</t>
   </si>
 </sst>
 </file>
@@ -685,7 +694,7 @@
   <dimension ref="A1:G127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
+      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1330,14 +1339,27 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+    <row r="35" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="8" t="str">
+        <f aca="false">D34</f>
+        <v>Study for today’s midterm</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
+      <c r="G35" s="8" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8"/>

--- a/diaries/diary-harry-duong.xlsx
+++ b/diaries/diary-harry-duong.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="133">
   <si>
     <t xml:space="preserve">SWE 265P Diary</t>
   </si>
@@ -386,6 +386,61 @@
   </si>
   <si>
     <t xml:space="preserve">I decided not to drink the whole smoothie. Even though it’s advertised as no added sugar, I don’t believe so.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 Feb 2020 (W)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2200-0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supertask by working on latest homework, harassment training, and 264 lab at the same time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished all, just need to review homework for this class with teammates tomorrow in lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 Feb 2020 (Th)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished all, just need to review homework for this class with teammates today in lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1615-1640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look at homework one last time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submitted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We spent more time deciding whether the document was good enough than actually working on it.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <strike val="true"/>
+        <sz val="12"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Need food and water. Badly.</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Went to lunch while waiting for Deon and Thuc to arrive.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -395,7 +450,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -500,6 +555,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <i val="true"/>
+      <strike val="true"/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -570,7 +634,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -609,6 +673,10 @@
     </xf>
     <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -693,14 +761,14 @@
   </sheetPr>
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="1" width="34.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1361,32 +1429,67 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+    <row r="36" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+    <row r="37" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="8" t="str">
+        <f aca="false">D36</f>
+        <v>Supertask by working on latest homework, harassment training, and 264 lab at the same time</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
+    <row r="38" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8"/>

--- a/diaries/diary-harry-duong.xlsx
+++ b/diaries/diary-harry-duong.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="137">
   <si>
     <t xml:space="preserve">SWE 265P Diary</t>
   </si>
@@ -441,6 +441,18 @@
       </rPr>
       <t xml:space="preserve"> Went to lunch while waiting for Deon and Thuc to arrive.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">24 Feb 2020 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1247-1300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix GitHub pull requests at Kaj’s request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I hope GitHub doesn’t merge pull requests again. Team pay4grade aren’t on good terms with Kaj at the moment, so anything that fuses the situation among us doesn’t help.</t>
   </si>
 </sst>
 </file>
@@ -761,14 +773,14 @@
   </sheetPr>
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B33" colorId="64" zoomScale="124" zoomScaleNormal="124" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="1" width="34.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1491,13 +1503,25 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+    <row r="39" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>136</v>
+      </c>
       <c r="G39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/diaries/diary-harry-duong.xlsx
+++ b/diaries/diary-harry-duong.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="155">
   <si>
     <t xml:space="preserve">SWE 265P Diary</t>
   </si>
@@ -453,6 +453,82 @@
   </si>
   <si>
     <t xml:space="preserve">I hope GitHub doesn’t merge pull requests again. Team pay4grade aren’t on good terms with Kaj at the moment, so anything that fuses the situation among us doesn’t help.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I forget what day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1700-I don’t remember</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work on assignments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deon systematically figured out RuneLite’s architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today I have a monster diet. Android programming (from other courses) takes a lot of energy when doing for the first time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 Feb 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0100-0200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We glossed over the document as the chaos from 261 kept us largely busy today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finding the architecture of a system is not easy, especially when people’s interpretations differ. Software is intangible and there is no realistic way (at least, of my knowledge) to verify whether nontrivial software can match their corresponding architecture.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exhausted, once again, from the chaos of 261.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1435-1525</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Look at homework </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <strike val="true"/>
+        <sz val="12"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">one last time.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Waiting for rest of team to show up. It’s 1600 and the others aren’t here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full. Just downed a whole Blaze Pizza (honestly, they’re not that big to begin with). My body is full of tomatoes now. Also, Sibelius’s Finlandia keeps my mood up.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 Feb 20020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1620-1640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalize the homework.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pull request sent in.</t>
   </si>
 </sst>
 </file>
@@ -773,8 +849,8 @@
   </sheetPr>
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B33" colorId="64" zoomScale="124" zoomScaleNormal="124" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C40" colorId="64" zoomScale="124" zoomScaleNormal="124" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1524,39 +1600,87 @@
       </c>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+    <row r="40" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="G40" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
+      <c r="G42" s="8" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="A43" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>154</v>
+      </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
     </row>

--- a/diaries/diary-harry-duong.xlsx
+++ b/diaries/diary-harry-duong.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="163">
   <si>
     <t xml:space="preserve">SWE 265P Diary</t>
   </si>
@@ -301,6 +301,12 @@
     <t xml:space="preserve">Mission accomplished</t>
   </si>
   <si>
+    <t xml:space="preserve">Fourth lecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learned about various notations and diagrams (e.g. UML notation), call graphs, etc…</t>
+  </si>
+  <si>
     <t xml:space="preserve">5 Feb 2020 (W)</t>
   </si>
   <si>
@@ -346,6 +352,12 @@
     <t xml:space="preserve">I need some fruits and vegetables</t>
   </si>
   <si>
+    <t xml:space="preserve">Fifth lecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learned of mental simulation and midterm details</t>
+  </si>
+  <si>
     <t xml:space="preserve">12 Feb 2020 (W)</t>
   </si>
   <si>
@@ -382,10 +394,16 @@
     <t xml:space="preserve">1445-1700</t>
   </si>
   <si>
-    <t xml:space="preserve">Went through the final set of slides with the sample questions</t>
+    <t xml:space="preserve">Went through the final set of slides with the sample questions. Stepped outside of the raw code and focus on the ecosystems in which software live </t>
   </si>
   <si>
     <t xml:space="preserve">I decided not to drink the whole smoothie. Even though it’s advertised as no added sugar, I don’t believe so.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midterm and sixth lecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretty good midterm. I wish I remembered everything. Stepped outside of the raw code and focus on the ecosystems in which software live </t>
   </si>
   <si>
     <t xml:space="preserve">19 Feb 2020 (W)</t>
@@ -443,6 +461,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Seventh lecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attempted to recover the architecture of jpacman4, if I remember correctly</t>
+  </si>
+  <si>
     <t xml:space="preserve">24 Feb 2020 (M)</t>
   </si>
   <si>
@@ -470,7 +494,7 @@
     <t xml:space="preserve">Today I have a monster diet. Android programming (from other courses) takes a lot of energy when doing for the first time.</t>
   </si>
   <si>
-    <t xml:space="preserve">27 Feb 2020</t>
+    <t xml:space="preserve">27 Feb 2020 (Th)</t>
   </si>
   <si>
     <t xml:space="preserve">0100-0200</t>
@@ -519,9 +543,6 @@
     <t xml:space="preserve">Full. Just downed a whole Blaze Pizza (honestly, they’re not that big to begin with). My body is full of tomatoes now. Also, Sibelius’s Finlandia keeps my mood up.</t>
   </si>
   <si>
-    <t xml:space="preserve">27 Feb 20020</t>
-  </si>
-  <si>
     <t xml:space="preserve">1620-1640</t>
   </si>
   <si>
@@ -529,6 +550,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pull request sent in.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learned of the difficulties in documenting the architecture and social context, and finding interesting issues of software</t>
   </si>
 </sst>
 </file>
@@ -847,10 +871,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C40" colorId="64" zoomScale="124" zoomScaleNormal="124" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G48" activeCellId="0" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1362,370 +1386,420 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="E29" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="8" t="s">
+      <c r="D30" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="E30" s="8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="8" t="s">
+      <c r="F30" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="8" t="str">
-        <f aca="false">C29</f>
-        <v>Harry, Deon, Thuc</v>
-      </c>
-      <c r="D30" s="8" t="str">
-        <f aca="false">D29</f>
-        <v>Work on fourth lecture’s homework while simutaneously paying attention to the 261 lecture</v>
-      </c>
-      <c r="E30" s="8" t="s">
+      <c r="G30" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>42</v>
+      <c r="C31" s="8" t="str">
+        <f aca="false">C30</f>
+        <v>Harry, Deon, Thuc</v>
       </c>
       <c r="D31" s="8" t="str">
         <f aca="false">D30</f>
         <v>Work on fourth lecture’s homework while simutaneously paying attention to the 261 lecture</v>
       </c>
-      <c r="E31" s="8" t="str">
-        <f aca="false">E30</f>
-        <v>We finished documenting the second feature</v>
+      <c r="E31" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="8" t="str">
+        <f aca="false">D31</f>
+        <v>Work on fourth lecture’s homework while simutaneously paying attention to the 261 lecture</v>
+      </c>
+      <c r="E32" s="8" t="str">
+        <f aca="false">E31</f>
+        <v>We finished documenting the second feature</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="8" t="s">
+      <c r="B33" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="F33" s="8"/>
+      <c r="G33" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F34" s="8" t="str">
-        <f aca="false">F33</f>
-        <v>I don’t procrastinate out of laziness; the past week or so were full of chaos, both in and out of academia. On the bright side, the lecture recordings help tremendously with the studying.</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="8" t="str">
-        <f aca="false">D34</f>
-        <v>Study for today’s midterm</v>
+      <c r="D35" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="E35" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8" t="s">
+      <c r="E36" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
+      <c r="F36" s="8" t="str">
+        <f aca="false">F35</f>
+        <v>I don’t procrastinate out of laziness; the past week or so were full of chaos, both in and out of academia. On the bright side, the lecture recordings help tremendously with the studying.</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="8" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>85</v>
-      </c>
       <c r="C37" s="8" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D37" s="8" t="str">
         <f aca="false">D36</f>
-        <v>Supertask by working on latest homework, harassment training, and 264 lab at the same time</v>
+        <v>Study for today’s midterm</v>
       </c>
       <c r="E37" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B38" s="8" t="s">
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="B39" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" s="8" t="s">
+      <c r="D39" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="E39" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="s">
-        <v>137</v>
-      </c>
       <c r="B40" s="8" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>139</v>
+      <c r="D40" s="8" t="str">
+        <f aca="false">D39</f>
+        <v>Supertask by working on latest homework, harassment training, and 264 lab at the same time</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F40" s="8"/>
-      <c r="G40" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>137</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="F44" s="8"/>
+      <c r="G44" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8" t="s">
+    </row>
+    <row r="45" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="s">
+      <c r="B45" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="C45" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="8" t="s">
+      <c r="F45" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="G45" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
+    </row>
+    <row r="46" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
+      <c r="G46" s="8" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
+      <c r="A47" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>161</v>
+      </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
+    <row r="48" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>162</v>
+      </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
     </row>
@@ -2439,6 +2513,42 @@
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/diaries/diary-harry-duong.xlsx
+++ b/diaries/diary-harry-duong.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="169">
   <si>
     <t xml:space="preserve">SWE 265P Diary</t>
   </si>
@@ -553,6 +553,24 @@
   </si>
   <si>
     <t xml:space="preserve">Learned of the difficulties in documenting the architecture and social context, and finding interesting issues of software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Mar 2020 (W)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finish homework 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the beginning of this course, I thought, “How can anyone understand a large code base without reading documentation or reading the code senselessly?”. Looking back, I learned a LOT about how to crack the code. These exercises sometimes leave me thinking, “Duh! Why didn’t I think of doing that before?”. The fun is knowing that there is no correct or obvious method to use; it’s a puzzle that only a human and not a computer can solve. Part of the problem is that at the beginning, I understand nothing about the code base. Two months in, and I am getting a feel of how the developers want the code to be. Discovering the code is a work in progress and obviously takes time; it’s like reading between the lines when reading a novel like Lord of the Rings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My head hurts today. Yesterday I had so much energy and today the reverse happens. I long for the verdant lands of Middle Earth as I slowly make my way through the fourth book of Lord of the Rings. I wonder if I still have the Silmarillon lying around somewhere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 Mar 2020 (Th)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000-0210</t>
   </si>
 </sst>
 </file>
@@ -746,7 +764,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -789,6 +807,10 @@
     </xf>
     <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -873,8 +895,8 @@
   </sheetPr>
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G48" activeCellId="0" sqref="G48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G50" activeCellId="0" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1673,7 +1695,7 @@
       <c r="D42" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" s="11" t="s">
         <v>140</v>
       </c>
       <c r="F42" s="8"/>
@@ -1803,20 +1825,41 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
+    <row r="49" customFormat="false" ht="264.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
+      <c r="F49" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
+      <c r="A50" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="8" t="str">
+        <f aca="false">D49</f>
+        <v>Finish homework 5</v>
+      </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>

--- a/diaries/diary-harry-duong.xlsx
+++ b/diaries/diary-harry-duong.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="172">
   <si>
     <t xml:space="preserve">SWE 265P Diary</t>
   </si>
@@ -571,6 +571,15 @@
   </si>
   <si>
     <t xml:space="preserve">0000-0210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1510-1535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix Git(Hub) issues with pull requests and commits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With great power comes great responsibility. I enjoy moving back and forth along the working tree in Git; if I mess up, it’s easy to go back. I just can’t wrap my head around the times where Git will merge commits into the same pull request, even though I branch in the correct order.</t>
   </si>
 </sst>
 </file>
@@ -895,8 +904,8 @@
   </sheetPr>
   <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G50" activeCellId="0" sqref="G50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1864,13 +1873,25 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
+    <row r="51" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>171</v>
+      </c>
       <c r="G51" s="8"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/diaries/diary-harry-duong.xlsx
+++ b/diaries/diary-harry-duong.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="189">
   <si>
     <t xml:space="preserve">SWE 265P Diary</t>
   </si>
@@ -494,6 +494,9 @@
     <t xml:space="preserve">Today I have a monster diet. Android programming (from other courses) takes a lot of energy when doing for the first time.</t>
   </si>
   <si>
+    <t xml:space="preserve">Learned of the difficulties in documenting the architecture and social context, and finding interesting issues of software</t>
+  </si>
+  <si>
     <t xml:space="preserve">27 Feb 2020 (Th)</t>
   </si>
   <si>
@@ -552,7 +555,7 @@
     <t xml:space="preserve">Pull request sent in.</t>
   </si>
   <si>
-    <t xml:space="preserve">Learned of the difficulties in documenting the architecture and social context, and finding interesting issues of software</t>
+    <t xml:space="preserve">Eighth lecture</t>
   </si>
   <si>
     <t xml:space="preserve">4 Mar 2020 (W)</t>
@@ -580,6 +583,54 @@
   </si>
   <si>
     <t xml:space="preserve">With great power comes great responsibility. I enjoy moving back and forth along the working tree in Git; if I mess up, it’s easy to go back. I just can’t wrap my head around the times where Git will merge commits into the same pull request, even though I branch in the correct order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninth lecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 Mar 2020 (Th)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1530-1700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work on homework for ninth lecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The chaos of the last three weeks, especially with the other two courses from this quarter and the two courses from last quarter are now over. All that remains are the final for this course and the search for the internship. I need to rest badly, lest COVID-19 or another disease take hold of me. Looking back, I had a pleasant time working with Thuc and Deon. Group work was never good throughout many years of schooling and I think this time around, everyone has an incentive to do his/her best. And for that, I must thank Thuc and Deon for changing my opinion on group work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenth lecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 Mar 2020 (Sa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1800-1930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More tired than usual. Nutrition and exercise aren’t the issue; something else is wrong. Brain needs rest, and yet I am so used to working actively that I am more comfortable doing something rather than sitting idly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 Mar 2020 (Tu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2340-0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feeling better.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 Mar 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000-1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Found some interesting test cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most of the test cases in Runelite are surprisingly simple for a large game with a GUI. So it doesn’t seem as scary as I expected.</t>
   </si>
 </sst>
 </file>
@@ -902,10 +953,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F58" activeCellId="0" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1752,81 +1803,81 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="B46" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D46" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F45" s="8" t="s">
+      <c r="E46" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="F46" s="8" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B46" s="8" t="s">
+      <c r="G46" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="8" t="s">
+    </row>
+    <row r="47" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="C47" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8" t="s">
+      <c r="E47" s="8" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B47" s="8" t="s">
+      <c r="F47" s="8"/>
+      <c r="G47" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C47" s="8" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E47" s="8" t="s">
+      <c r="D48" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-    </row>
-    <row r="48" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>162</v>
@@ -1834,127 +1885,195 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
     </row>
-    <row r="49" customFormat="false" ht="264.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" customFormat="false" ht="264.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="8" t="str">
-        <f aca="false">D49</f>
-        <v>Finish homework 5</v>
+      <c r="D50" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-    </row>
-    <row r="51" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F50" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>169</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="8" t="str">
+        <f aca="false">D50</f>
+        <v>Finish homework 5</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" customFormat="false" ht="97" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="C52" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F51" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="G51" s="8"/>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
+      <c r="F52" s="8" t="s">
+        <v>172</v>
+      </c>
       <c r="G52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+      <c r="A53" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
+    <row r="54" customFormat="false" ht="204.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
+      <c r="F54" s="8" t="s">
+        <v>177</v>
+      </c>
       <c r="G54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
+      <c r="A55" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>178</v>
+      </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
+    <row r="56" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
+      <c r="G56" s="8" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
+      <c r="A57" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="8" t="str">
+        <f aca="false">D56</f>
+        <v>Work on homework for ninth lecture</v>
+      </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
+      <c r="G57" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="8" t="str">
+        <f aca="false">D57</f>
+        <v>Work on homework for ninth lecture</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>188</v>
+      </c>
       <c r="G58" s="8"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2614,6 +2733,16 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
     </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G2"/>
